--- a/medicine/Psychotrope/Republic_Tobacco/Republic_Tobacco.xlsx
+++ b/medicine/Psychotrope/Republic_Tobacco/Republic_Tobacco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Republic Tobacco L.P.[1] est un groupe multinational américain spécialisé dans la production, la distribution et la vente de produits liés à l'industrie du tabac. Basé dans la banlieue de Chicago, il fait partie d'un conglomérat appelé Republic Group. Il possède des marques historiques de papier à cigarettes comme JOB et OCB.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Republic Tobacco L.P. est un groupe multinational américain spécialisé dans la production, la distribution et la vente de produits liés à l'industrie du tabac. Basé dans la banlieue de Chicago, il fait partie d'un conglomérat appelé Republic Group. Il possède des marques historiques de papier à cigarettes comme JOB et OCB.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On dispose actuellement de peu d'informations vérifiables concernant ce groupe.
-Outre Republic Tobacco, Republic Group possède Top Tobacco, Republic Technologies (dont JOB), Altesse GmbH (filtre à cigarettes), HTH Tabak (cigarettes, snuff, et tabac), et Productos Technologicos Catalanes (accessoires pour fumeur). Au total, le groupe est présent dans plus de 90 pays[2].
-Depuis la fin des années 1960, Donald R. Levin est le fondateur et président de ce groupe. Le siège est situé à Glenview (Illinois)[3]. Levin a monté en 1969 une holding (DRL Enterprises, Inc.), à partir de laquelle il a constitué son groupe – parti d'une boutique appelée Adams Apple Distributing Company, ouverte à Chicago – devenu en 1976 le principal distributeur américain de papier à rouler, et affichant 10 millions de dollars de chiffre d'affaires ; son principal fournisseur était JOB[4]. Ses investissement concernent l'industrie du tabac, mais aussi l'aéronautique, l'équipement médical, la location de matériel agricole et les clubs sportifs[5].
-En 2000, Levin rachète au groupe Bolloré les marques JOB et Zig-Zag[6].
-En 2006, Republic Group rachète les parts restantes (19 %) du groupe Bolloré avec la marque OCB. En juillet 2009, il prend le contrôle des Papeteries du Léman et des Papeteries des Vosges, et donc de Bolloré Thin Papers, à travers une holding (PLV) appartenant à Republic Technologies France (basée à Perpignan), elle-même filiale de Republic Group, ce qui en ferait le leader mondial du papier à cigarettes[7].
-Levin est également propriétaire depuis 1994 des Wolves de Chicago et producteur de films (dont Maximum Overdrive, 1986)[8].
+Outre Republic Tobacco, Republic Group possède Top Tobacco, Republic Technologies (dont JOB), Altesse GmbH (filtre à cigarettes), HTH Tabak (cigarettes, snuff, et tabac), et Productos Technologicos Catalanes (accessoires pour fumeur). Au total, le groupe est présent dans plus de 90 pays.
+Depuis la fin des années 1960, Donald R. Levin est le fondateur et président de ce groupe. Le siège est situé à Glenview (Illinois). Levin a monté en 1969 une holding (DRL Enterprises, Inc.), à partir de laquelle il a constitué son groupe – parti d'une boutique appelée Adams Apple Distributing Company, ouverte à Chicago – devenu en 1976 le principal distributeur américain de papier à rouler, et affichant 10 millions de dollars de chiffre d'affaires ; son principal fournisseur était JOB. Ses investissement concernent l'industrie du tabac, mais aussi l'aéronautique, l'équipement médical, la location de matériel agricole et les clubs sportifs.
+En 2000, Levin rachète au groupe Bolloré les marques JOB et Zig-Zag.
+En 2006, Republic Group rachète les parts restantes (19 %) du groupe Bolloré avec la marque OCB. En juillet 2009, il prend le contrôle des Papeteries du Léman et des Papeteries des Vosges, et donc de Bolloré Thin Papers, à travers une holding (PLV) appartenant à Republic Technologies France (basée à Perpignan), elle-même filiale de Republic Group, ce qui en ferait le leader mondial du papier à cigarettes.
+Levin est également propriétaire depuis 1994 des Wolves de Chicago et producteur de films (dont Maximum Overdrive, 1986).
 </t>
         </is>
       </c>
